--- a/cuda버전.xlsx
+++ b/cuda버전.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\autoencoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414AB0DC-FD49-49C9-A32B-BFAB6EB39723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC2BE1-62AB-4345-B024-9694D432B479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="3795" windowWidth="21600" windowHeight="12645" xr2:uid="{31A57F70-85C2-4FBF-8349-72B9D2F35D56}"/>
+    <workbookView xWindow="150" yWindow="6915" windowWidth="21600" windowHeight="12645" xr2:uid="{31A57F70-85C2-4FBF-8349-72B9D2F35D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>NVIDIA RTX A2000 Laptop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,86 @@
   </si>
   <si>
     <t>8.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6~3.9</t>
+  </si>
+  <si>
+    <t>tensorflow_gpu-2.5.0</t>
+  </si>
+  <si>
+    <t>tensorflow_gpu-2.4.0</t>
+  </si>
+  <si>
+    <t>3.6-3.8</t>
+  </si>
+  <si>
+    <t>Bazel 3.1.0</t>
+  </si>
+  <si>
+    <t>tensorflow_gpu-2.3.0</t>
+  </si>
+  <si>
+    <t>3.5-3.8</t>
+  </si>
+  <si>
+    <t>tensorflow_gpu-2.2.0</t>
+  </si>
+  <si>
+    <t>Bazel 2.0.0</t>
+  </si>
+  <si>
+    <t>tensorflow_gpu-2.1.0</t>
+  </si>
+  <si>
+    <t>3.5~3.7</t>
+  </si>
+  <si>
+    <t>Bazel 0.27.1-0.29.1</t>
+  </si>
+  <si>
+    <t>3.5 – 8.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0 – 10.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0 – 7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1 update2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow_gpu-2.6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tensorflow_gpu-2.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.6.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -165,6 +245,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -481,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E586F23A-8725-4B67-9540-5DFD30D11046}">
-  <dimension ref="C4:L8"/>
+  <dimension ref="C2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,10 +584,21 @@
     <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="4" spans="3:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -559,19 +656,180 @@
       <c r="K5" s="1">
         <v>8.1</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>11.2</v>
       </c>
     </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="L10" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/cuda버전.xlsx
+++ b/cuda버전.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\autoencoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC2BE1-62AB-4345-B024-9694D432B479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D90D1-252A-4557-A421-88A14A42524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="6915" windowWidth="21600" windowHeight="12645" xr2:uid="{31A57F70-85C2-4FBF-8349-72B9D2F35D56}"/>
+    <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{31A57F70-85C2-4FBF-8349-72B9D2F35D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>NVIDIA RTX A2000 Laptop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +181,35 @@
   </si>
   <si>
     <t>7.6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리 오류 발생</t>
+  </si>
+  <si>
+    <t>tensorflow 실행 오류 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8.12</t>
+  </si>
+  <si>
+    <t>dch-whql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whql</t>
+  </si>
+  <si>
+    <t>cuda_11.0.3_451.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuDNN v8.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되긴하는데 anaconda에 tensorflow_gpu-2.4.0이 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +233,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +260,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,16 +292,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,39 +623,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E586F23A-8725-4B67-9540-5DFD30D11046}">
-  <dimension ref="C2:L14"/>
+  <dimension ref="C4:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.75" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,208 +674,269 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>8.6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <v>8.1</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G6" s="1" t="s">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="6">
         <v>8.1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="6">
         <v>11.2</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G7" s="1" t="s">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="6">
         <v>8.1</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="6">
         <v>11.2</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G8" s="1" t="s">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6">
         <v>8.1</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="6">
         <v>11.2</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <v>8</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="7">
         <v>7.6</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="7">
         <v>10.1</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G11" s="1" t="s">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>7.6</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>10.1</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="G12" s="1" t="s">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>7.6</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>10.1</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="1" t="s">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L16" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="2">
+        <v>8</v>
+      </c>
+      <c r="L18" s="2">
+        <v>11</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/cuda버전.xlsx
+++ b/cuda버전.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\autoencoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D90D1-252A-4557-A421-88A14A42524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236CD0F-E560-4D7F-BAEE-349CE57A474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{31A57F70-85C2-4FBF-8349-72B9D2F35D56}"/>
+    <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="15720" xr2:uid="{31A57F70-85C2-4FBF-8349-72B9D2F35D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>NVIDIA RTX A2000 Laptop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,9 +131,6 @@
     <t>Bazel 2.0.0</t>
   </si>
   <si>
-    <t>tensorflow_gpu-2.1.0</t>
-  </si>
-  <si>
     <t>3.5~3.7</t>
   </si>
   <si>
@@ -168,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.1 update2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tensorflow_gpu-2.6.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,15 +194,205 @@
     <t>whql</t>
   </si>
   <si>
-    <t>cuda_11.0.3_451.82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cuDNN v8.0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>되긴하는데 anaconda에 tensorflow_gpu-2.4.0이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>tensorflow_gpu-2.6.0</t>
+  </si>
+  <si>
+    <t>MSVC 2017</t>
+  </si>
+  <si>
+    <t>Bazel 0.26.1</t>
+  </si>
+  <si>
+    <t>Bazel 0.24.1~0.25.2</t>
+  </si>
+  <si>
+    <t>MSVC 2015 업데이트 3</t>
+  </si>
+  <si>
+    <t>Bazel 0.19.0~0.21.0</t>
+  </si>
+  <si>
+    <t>8.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10.1.2</t>
+  </si>
+  <si>
+    <t>11.0.3</t>
+  </si>
+  <si>
+    <r>
+      <t>tensorflow_gpu-</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.1.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tensorflow_gpu-</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.0.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Python 3.8 지원에는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TensorFlow 2.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이상이 필요합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Python 3.9 지원에는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TensorFlow 2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이상이 필요합니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tensorflow_gpu-</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.15.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tensorflow_gpu-</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.14.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tensorflow_gpu-</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.13.0</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +425,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
@@ -284,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +518,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E586F23A-8725-4B67-9540-5DFD30D11046}">
-  <dimension ref="C4:N18"/>
+  <dimension ref="C2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +876,17 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -674,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -699,19 +940,19 @@
       <c r="J5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="K5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="G6" s="6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>14</v>
@@ -719,16 +960,16 @@
       <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="K6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>19</v>
@@ -739,205 +980,281 @@
       <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="K7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="6">
-        <v>8.1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="G15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="5">
-        <v>8</v>
-      </c>
-      <c r="L9" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="7">
-        <v>7.6</v>
-      </c>
-      <c r="L10" s="7">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="L11" s="2">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="L12" s="2">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="7" t="s">
+      <c r="H22" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="7" t="s">
+      <c r="K22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G17" s="2" t="s">
+      <c r="N22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="2">
-        <v>8</v>
-      </c>
-      <c r="L18" s="2">
-        <v>11</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cuda버전.xlsx
+++ b/cuda버전.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\autoencoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E236CD0F-E560-4D7F-BAEE-349CE57A474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E712C-1BF5-4979-978E-EC96AC2C8AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="15720" xr2:uid="{31A57F70-85C2-4FBF-8349-72B9D2F35D56}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>tensorflow_gpu-2.7.0</t>
   </si>
   <si>
-    <t>3.7~3.9</t>
-  </si>
-  <si>
     <t>MSVC 2019</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t>11.0</t>
-  </si>
-  <si>
-    <t>tensorflow_gpu-2.6.0</t>
   </si>
   <si>
     <t>MSVC 2017</t>
@@ -395,12 +389,48 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>tensorflow_gpu-</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.4.0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.7~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +489,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -494,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,9 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -522,22 +565,28 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,10 +906,10 @@
   <dimension ref="C2:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="25.5" style="2" bestFit="1" customWidth="1"/>
@@ -876,17 +925,17 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:12">
       <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
       <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" s="1" customFormat="1" ht="49.5">
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
@@ -915,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -928,333 +977,333 @@
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="G6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="G10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="G11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="G12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="G13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="G14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="G15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14">
+      <c r="G20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G7" s="6" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14">
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14">
+      <c r="G22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="H22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14">
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="G15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+    </row>
+    <row r="24" spans="7:14">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="7:14">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="7:14">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="7:14">
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
